--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Tgfb2</t>
+  </si>
+  <si>
+    <t>Tgfbr3</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Tgfb2</t>
-  </si>
-  <si>
-    <t>Tgfbr3</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H2">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I2">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J2">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.789624</v>
+        <v>22.3363875</v>
       </c>
       <c r="N2">
-        <v>71.57924800000001</v>
+        <v>44.672775</v>
       </c>
       <c r="O2">
-        <v>0.258139457682779</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P2">
-        <v>0.1993778771086309</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q2">
-        <v>85.33035522809202</v>
+        <v>63.6002947216875</v>
       </c>
       <c r="R2">
-        <v>341.3214209123681</v>
+        <v>254.40117888675</v>
       </c>
       <c r="S2">
-        <v>0.01768003855628255</v>
+        <v>0.03190942915112365</v>
       </c>
       <c r="T2">
-        <v>0.01143535950490094</v>
+        <v>0.01892984224501467</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H3">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I3">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J3">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +629,22 @@
         <v>180.340101</v>
       </c>
       <c r="O3">
-        <v>0.4335790718803266</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P3">
-        <v>0.5023219368682956</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q3">
-        <v>143.3235219254235</v>
+        <v>171.165899495295</v>
       </c>
       <c r="R3">
-        <v>859.941131552541</v>
+        <v>1026.99539697177</v>
       </c>
       <c r="S3">
-        <v>0.02969594333564285</v>
+        <v>0.08587705712582192</v>
       </c>
       <c r="T3">
-        <v>0.0288107789018005</v>
+        <v>0.07641812406728733</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -664,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H4">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I4">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J4">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.1309775</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N4">
-        <v>42.261955</v>
+        <v>0.373519</v>
       </c>
       <c r="O4">
-        <v>0.1524111868891667</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P4">
-        <v>0.1177170633360173</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q4">
-        <v>50.38090974053875</v>
+        <v>0.3545174659383333</v>
       </c>
       <c r="R4">
-        <v>201.523638962155</v>
+        <v>2.12710479563</v>
       </c>
       <c r="S4">
-        <v>0.0104386818071053</v>
+        <v>0.0001778678858596174</v>
       </c>
       <c r="T4">
-        <v>0.006751686589456011</v>
+        <v>0.0001582766180412037</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H5">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I5">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J5">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.40334366666667</v>
+        <v>12.9946545</v>
       </c>
       <c r="N5">
-        <v>64.210031</v>
+        <v>25.989309</v>
       </c>
       <c r="O5">
-        <v>0.1543756795743782</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P5">
-        <v>0.178851553034748</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q5">
-        <v>51.03029073861184</v>
+        <v>37.0007843034825</v>
       </c>
       <c r="R5">
-        <v>306.181744431671</v>
+        <v>148.00313721393</v>
       </c>
       <c r="S5">
-        <v>0.01057323042175667</v>
+        <v>0.01856396908905167</v>
       </c>
       <c r="T5">
-        <v>0.01025806792921091</v>
+        <v>0.01101282647937004</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.3842205</v>
+        <v>2.847385</v>
       </c>
       <c r="H6">
-        <v>4.768441</v>
+        <v>5.69477</v>
       </c>
       <c r="I6">
-        <v>0.0684902599354226</v>
+        <v>0.1367698184108593</v>
       </c>
       <c r="J6">
-        <v>0.05735520746201143</v>
+        <v>0.1067339650714877</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2072186666666667</v>
+        <v>0.121553</v>
       </c>
       <c r="N6">
-        <v>0.621656</v>
+        <v>0.364659</v>
       </c>
       <c r="O6">
-        <v>0.001494603973349423</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P6">
-        <v>0.001731569652308208</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q6">
-        <v>0.4940549930493333</v>
+        <v>0.346108188905</v>
       </c>
       <c r="R6">
-        <v>2.964329958296</v>
+        <v>2.07664913343</v>
       </c>
       <c r="S6">
-        <v>0.0001023658146352174</v>
+        <v>0.0001736487980254879</v>
       </c>
       <c r="T6">
-        <v>9.93145366430603E-05</v>
+        <v>0.0001545222418626289</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.847385</v>
+      </c>
+      <c r="H7">
+        <v>5.69477</v>
+      </c>
+      <c r="I7">
+        <v>0.1367698184108593</v>
+      </c>
+      <c r="J7">
+        <v>0.1067339650714877</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>11.717184</v>
-      </c>
-      <c r="H7">
-        <v>35.151552</v>
-      </c>
-      <c r="I7">
-        <v>0.3365934391853331</v>
-      </c>
-      <c r="J7">
-        <v>0.4228058096077277</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.789624</v>
+        <v>0.047492</v>
       </c>
       <c r="N7">
-        <v>71.57924800000001</v>
+        <v>0.142476</v>
       </c>
       <c r="O7">
-        <v>0.258139457682779</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P7">
-        <v>0.1993778771086309</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q7">
-        <v>419.3536096988159</v>
+        <v>0.13522800842</v>
       </c>
       <c r="R7">
-        <v>2516.121658192896</v>
+        <v>0.8113680505199999</v>
       </c>
       <c r="S7">
-        <v>0.08688804785088333</v>
+        <v>6.784636097691108E-05</v>
       </c>
       <c r="T7">
-        <v>0.08429812474878472</v>
+        <v>6.037341991180779E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +921,40 @@
         <v>35.151552</v>
       </c>
       <c r="I8">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J8">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.113367</v>
+        <v>22.3363875</v>
       </c>
       <c r="N8">
-        <v>180.340101</v>
+        <v>44.672775</v>
       </c>
       <c r="O8">
-        <v>0.4335790718803266</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P8">
-        <v>0.5023219368682956</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q8">
-        <v>704.359381998528</v>
+        <v>261.7195622328001</v>
       </c>
       <c r="R8">
-        <v>6339.234437986751</v>
+        <v>1570.3173733968</v>
       </c>
       <c r="S8">
-        <v>0.1459398709629839</v>
+        <v>0.1313094831568895</v>
       </c>
       <c r="T8">
-        <v>0.2123846332013216</v>
+        <v>0.116846393098831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +983,40 @@
         <v>35.151552</v>
       </c>
       <c r="I9">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J9">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.1309775</v>
+        <v>60.113367</v>
       </c>
       <c r="N9">
-        <v>42.261955</v>
+        <v>180.340101</v>
       </c>
       <c r="O9">
-        <v>0.1524111868891667</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P9">
-        <v>0.1177170633360173</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q9">
-        <v>247.59555146736</v>
+        <v>704.3593819985281</v>
       </c>
       <c r="R9">
-        <v>1485.57330880416</v>
+        <v>6339.234437986753</v>
       </c>
       <c r="S9">
-        <v>0.05130060556534316</v>
+        <v>0.3533899629736642</v>
       </c>
       <c r="T9">
-        <v>0.04977145826842894</v>
+        <v>0.4716987098502139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1045,10 @@
         <v>35.151552</v>
       </c>
       <c r="I10">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J10">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.40334366666667</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N10">
-        <v>64.210031</v>
+        <v>0.373519</v>
       </c>
       <c r="O10">
-        <v>0.1543756795743782</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P10">
-        <v>0.178851553034748</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q10">
-        <v>250.786915957568</v>
+        <v>1.458863616832</v>
       </c>
       <c r="R10">
-        <v>2257.082243618112</v>
+        <v>13.129772551488</v>
       </c>
       <c r="S10">
-        <v>0.05196184091451294</v>
+        <v>0.0007319385142185323</v>
       </c>
       <c r="T10">
-        <v>0.07561947568045606</v>
+        <v>0.0009769786610274885</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,134 +1107,134 @@
         <v>35.151552</v>
       </c>
       <c r="I11">
-        <v>0.3365934391853331</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J11">
-        <v>0.4228058096077277</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2072186666666667</v>
+        <v>12.9946545</v>
       </c>
       <c r="N11">
-        <v>0.621656</v>
+        <v>25.989309</v>
       </c>
       <c r="O11">
-        <v>0.001494603973349423</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P11">
-        <v>0.001731569652308208</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q11">
-        <v>2.428019245568</v>
+        <v>152.260757792928</v>
       </c>
       <c r="R11">
-        <v>21.852173210112</v>
+        <v>913.564546757568</v>
       </c>
       <c r="S11">
-        <v>0.0005030738916097464</v>
+        <v>0.07639200234135209</v>
       </c>
       <c r="T11">
-        <v>0.0007321177087363436</v>
+        <v>0.06797780115027523</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.910282</v>
+        <v>11.717184</v>
       </c>
       <c r="H12">
-        <v>37.820564</v>
+        <v>35.151552</v>
       </c>
       <c r="I12">
-        <v>0.5432258172564757</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J12">
-        <v>0.4549089093375132</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>35.789624</v>
+        <v>0.121553</v>
       </c>
       <c r="N12">
-        <v>71.57924800000001</v>
+        <v>0.364659</v>
       </c>
       <c r="O12">
-        <v>0.258139457682779</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P12">
-        <v>0.1993778771086309</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q12">
-        <v>676.7918825139681</v>
+        <v>1.424258866752</v>
       </c>
       <c r="R12">
-        <v>2707.167530055872</v>
+        <v>12.818329800768</v>
       </c>
       <c r="S12">
-        <v>0.140228017865871</v>
+        <v>0.000714576679249023</v>
       </c>
       <c r="T12">
-        <v>0.09069877262151602</v>
+        <v>0.0009538043889377059</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.910282</v>
+        <v>11.717184</v>
       </c>
       <c r="H13">
-        <v>37.820564</v>
+        <v>35.151552</v>
       </c>
       <c r="I13">
-        <v>0.5432258172564757</v>
+        <v>0.5628171560806234</v>
       </c>
       <c r="J13">
-        <v>0.4549089093375132</v>
+        <v>0.6588263482768545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.113367</v>
+        <v>0.047492</v>
       </c>
       <c r="N13">
-        <v>180.340101</v>
+        <v>0.142476</v>
       </c>
       <c r="O13">
-        <v>0.4335790718803266</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P13">
-        <v>0.5023219368682956</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q13">
-        <v>1136.760721939494</v>
+        <v>0.5564725025280001</v>
       </c>
       <c r="R13">
-        <v>6820.564331636963</v>
+        <v>5.008252522752</v>
       </c>
       <c r="S13">
-        <v>0.2355313456674946</v>
+        <v>0.0002791924152500933</v>
       </c>
       <c r="T13">
-        <v>0.2285107244370635</v>
+        <v>0.0003726611275692868</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H14">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I14">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J14">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.1309775</v>
+        <v>22.3363875</v>
       </c>
       <c r="N14">
-        <v>42.261955</v>
+        <v>44.672775</v>
       </c>
       <c r="O14">
-        <v>0.1524111868891667</v>
+        <v>0.2333075346730891</v>
       </c>
       <c r="P14">
-        <v>0.1177170633360173</v>
+        <v>0.1773553735433322</v>
       </c>
       <c r="Q14">
-        <v>399.592743460655</v>
+        <v>139.697172830775</v>
       </c>
       <c r="R14">
-        <v>1598.37097384262</v>
+        <v>558.7886913231</v>
       </c>
       <c r="S14">
-        <v>0.082793691556897</v>
+        <v>0.07008862236507599</v>
       </c>
       <c r="T14">
-        <v>0.05355054089260258</v>
+        <v>0.04157913819948655</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1346,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H15">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I15">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J15">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.40334366666667</v>
+        <v>60.113367</v>
       </c>
       <c r="N15">
-        <v>64.210031</v>
+        <v>180.340101</v>
       </c>
       <c r="O15">
-        <v>0.1543756795743782</v>
+        <v>0.627894795237978</v>
       </c>
       <c r="P15">
-        <v>0.178851553034748</v>
+        <v>0.715968192656428</v>
       </c>
       <c r="Q15">
-        <v>404.7432644795807</v>
+        <v>375.963544652814</v>
       </c>
       <c r="R15">
-        <v>2428.459586877484</v>
+        <v>2255.781267916884</v>
       </c>
       <c r="S15">
-        <v>0.08386085470131542</v>
+        <v>0.1886277751384919</v>
       </c>
       <c r="T15">
-        <v>0.0813611649243576</v>
+        <v>0.1678513587389268</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1408,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.910282</v>
+        <v>6.254242</v>
       </c>
       <c r="H16">
-        <v>37.820564</v>
+        <v>12.508484</v>
       </c>
       <c r="I16">
-        <v>0.5432258172564757</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J16">
-        <v>0.4549089093375132</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,60 +1429,60 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2072186666666667</v>
+        <v>0.1245063333333333</v>
       </c>
       <c r="N16">
-        <v>0.621656</v>
+        <v>0.373519</v>
       </c>
       <c r="O16">
-        <v>0.001494603973349423</v>
+        <v>0.001300490765625635</v>
       </c>
       <c r="P16">
-        <v>0.001731569652308208</v>
+        <v>0.001482907694239543</v>
       </c>
       <c r="Q16">
-        <v>3.918563422330666</v>
+        <v>0.7786927391993332</v>
       </c>
       <c r="R16">
-        <v>23.511380533984</v>
+        <v>4.672156435195999</v>
       </c>
       <c r="S16">
-        <v>0.0008119074648975162</v>
+        <v>0.0003906843655474849</v>
       </c>
       <c r="T16">
-        <v>0.000787706461973464</v>
+        <v>0.0003476524151708511</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.799402</v>
+        <v>6.254242</v>
       </c>
       <c r="H17">
-        <v>5.398205999999999</v>
+        <v>12.508484</v>
       </c>
       <c r="I17">
-        <v>0.05169048362276864</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J17">
-        <v>0.06493007359274758</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,276 +1491,152 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>35.789624</v>
+        <v>12.9946545</v>
       </c>
       <c r="N17">
-        <v>71.57924800000001</v>
+        <v>25.989309</v>
       </c>
       <c r="O17">
-        <v>0.258139457682779</v>
+        <v>0.1357314742736964</v>
       </c>
       <c r="P17">
-        <v>0.1993778771086309</v>
+        <v>0.103180149561519</v>
       </c>
       <c r="Q17">
-        <v>64.399921004848</v>
+        <v>81.271713949389</v>
       </c>
       <c r="R17">
-        <v>386.399526029088</v>
+        <v>325.086855797556</v>
       </c>
       <c r="S17">
-        <v>0.01334335340974207</v>
+        <v>0.04077550284329259</v>
       </c>
       <c r="T17">
-        <v>0.01294562023342919</v>
+        <v>0.02418952193187371</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.799402</v>
+        <v>6.254242</v>
       </c>
       <c r="H18">
-        <v>5.398205999999999</v>
+        <v>12.508484</v>
       </c>
       <c r="I18">
-        <v>0.05169048362276864</v>
+        <v>0.3004130255085172</v>
       </c>
       <c r="J18">
-        <v>0.06493007359274758</v>
+        <v>0.234439686651658</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>60.113367</v>
+        <v>0.121553</v>
       </c>
       <c r="N18">
-        <v>180.340101</v>
+        <v>0.364659</v>
       </c>
       <c r="O18">
-        <v>0.4335790718803266</v>
+        <v>0.001269642674408205</v>
       </c>
       <c r="P18">
-        <v>0.5023219368682956</v>
+        <v>0.00144773261031888</v>
       </c>
       <c r="Q18">
-        <v>108.168112806534</v>
+        <v>0.760221877826</v>
       </c>
       <c r="R18">
-        <v>973.5130152588059</v>
+        <v>4.561331266956</v>
       </c>
       <c r="S18">
-        <v>0.02241191191420525</v>
+        <v>0.0003814171971336942</v>
       </c>
       <c r="T18">
-        <v>0.03261580032810994</v>
+        <v>0.000339405979518545</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.254242</v>
+      </c>
+      <c r="H19">
+        <v>12.508484</v>
+      </c>
+      <c r="I19">
+        <v>0.3004130255085172</v>
+      </c>
+      <c r="J19">
+        <v>0.234439686651658</v>
+      </c>
+      <c r="K19">
         <v>3</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.799402</v>
-      </c>
-      <c r="H19">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I19">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J19">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.1309775</v>
+        <v>0.047492</v>
       </c>
       <c r="N19">
-        <v>42.261955</v>
+        <v>0.142476</v>
       </c>
       <c r="O19">
-        <v>0.1524111868891667</v>
+        <v>0.000496062375202541</v>
       </c>
       <c r="P19">
-        <v>0.1177170633360173</v>
+        <v>0.0005656439341625811</v>
       </c>
       <c r="Q19">
-        <v>38.02312317545499</v>
+        <v>0.297026461064</v>
       </c>
       <c r="R19">
-        <v>228.13873905273</v>
+        <v>1.782158766384</v>
       </c>
       <c r="S19">
-        <v>0.0078782079598212</v>
+        <v>0.0001490235989755366</v>
       </c>
       <c r="T19">
-        <v>0.00764337758552973</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.799402</v>
-      </c>
-      <c r="H20">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I20">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J20">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>21.40334366666667</v>
-      </c>
-      <c r="N20">
-        <v>64.210031</v>
-      </c>
-      <c r="O20">
-        <v>0.1543756795743782</v>
-      </c>
-      <c r="P20">
-        <v>0.178851553034748</v>
-      </c>
-      <c r="Q20">
-        <v>38.51321940048733</v>
-      </c>
-      <c r="R20">
-        <v>346.6189746043859</v>
-      </c>
-      <c r="S20">
-        <v>0.007979753536793177</v>
-      </c>
-      <c r="T20">
-        <v>0.01161284450072338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.799402</v>
-      </c>
-      <c r="H21">
-        <v>5.398205999999999</v>
-      </c>
-      <c r="I21">
-        <v>0.05169048362276864</v>
-      </c>
-      <c r="J21">
-        <v>0.06493007359274758</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.2072186666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.621656</v>
-      </c>
-      <c r="O21">
-        <v>0.001494603973349423</v>
-      </c>
-      <c r="P21">
-        <v>0.001731569652308208</v>
-      </c>
-      <c r="Q21">
-        <v>0.3728696832373333</v>
-      </c>
-      <c r="R21">
-        <v>3.355827149135999</v>
-      </c>
-      <c r="S21">
-        <v>7.72568022069433E-05</v>
-      </c>
-      <c r="T21">
-        <v>0.0001124309449553403</v>
+        <v>0.0001326093866814866</v>
       </c>
     </row>
   </sheetData>
